--- a/1des/Chamada.xlsx
+++ b/1des/Chamada.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\1des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50EF1F2D-0A4D-4905-8811-AFFD473969E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8795847A-B5D7-4967-B1FE-6AE47F8B06B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada-2022-01" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="49">
   <si>
     <t>ANA CLARA DOS SANTOS</t>
   </si>
@@ -187,8 +186,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +205,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,10 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,14 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{992FE045-0267-45A7-B660-C9C1FBBBFD68}">
-  <dimension ref="A1:AG42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +572,10 @@
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="38" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>42</v>
       </c>
@@ -661,8 +669,23 @@
       <c r="AG1" t="s">
         <v>44</v>
       </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -762,8 +785,24 @@
       <c r="AG2" s="2">
         <v>44624</v>
       </c>
+      <c r="AH2" s="2">
+        <v>44627</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>44628</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>44629</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>44630</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>44631</v>
+      </c>
+      <c r="AM2" s="2"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -836,8 +875,26 @@
       <c r="AE3" t="s">
         <v>46</v>
       </c>
+      <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -931,8 +988,26 @@
       <c r="AE4" t="s">
         <v>46</v>
       </c>
+      <c r="AF4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1026,8 +1101,26 @@
       <c r="AE5" t="s">
         <v>46</v>
       </c>
+      <c r="AF5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1121,8 +1214,26 @@
       <c r="AE6" t="s">
         <v>46</v>
       </c>
+      <c r="AF6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1216,8 +1327,26 @@
       <c r="AE7" t="s">
         <v>46</v>
       </c>
+      <c r="AF7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1311,8 +1440,26 @@
       <c r="AE8" t="s">
         <v>46</v>
       </c>
+      <c r="AF8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1406,8 +1553,26 @@
       <c r="AE9" t="s">
         <v>46</v>
       </c>
+      <c r="AF9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1501,8 +1666,26 @@
       <c r="AE10" t="s">
         <v>47</v>
       </c>
+      <c r="AF10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1596,8 +1779,26 @@
       <c r="AE11" t="s">
         <v>46</v>
       </c>
+      <c r="AF11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1691,8 +1892,26 @@
       <c r="AE12" t="s">
         <v>46</v>
       </c>
+      <c r="AF12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1786,8 +2005,26 @@
       <c r="AE13" t="s">
         <v>46</v>
       </c>
+      <c r="AF13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1881,8 +2118,26 @@
       <c r="AE14" t="s">
         <v>46</v>
       </c>
+      <c r="AF14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1976,8 +2231,26 @@
       <c r="AE15" t="s">
         <v>46</v>
       </c>
+      <c r="AF15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2071,8 +2344,26 @@
       <c r="AE16" t="s">
         <v>46</v>
       </c>
+      <c r="AF16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2166,8 +2457,26 @@
       <c r="AE17" t="s">
         <v>46</v>
       </c>
+      <c r="AF17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2261,8 +2570,26 @@
       <c r="AE18" t="s">
         <v>46</v>
       </c>
+      <c r="AF18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2356,8 +2683,26 @@
       <c r="AE19" t="s">
         <v>46</v>
       </c>
+      <c r="AF19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2451,8 +2796,26 @@
       <c r="AE20" t="s">
         <v>47</v>
       </c>
+      <c r="AF20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2546,8 +2909,26 @@
       <c r="AE21" t="s">
         <v>47</v>
       </c>
+      <c r="AF21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2641,8 +3022,26 @@
       <c r="AE22" t="s">
         <v>46</v>
       </c>
+      <c r="AF22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2736,8 +3135,26 @@
       <c r="AE23" t="s">
         <v>46</v>
       </c>
+      <c r="AF23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2831,8 +3248,26 @@
       <c r="AE24" t="s">
         <v>47</v>
       </c>
+      <c r="AF24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2926,8 +3361,26 @@
       <c r="AE25" t="s">
         <v>46</v>
       </c>
+      <c r="AF25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3021,8 +3474,26 @@
       <c r="AE26" t="s">
         <v>46</v>
       </c>
+      <c r="AF26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3116,8 +3587,26 @@
       <c r="AE27" t="s">
         <v>47</v>
       </c>
+      <c r="AF27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3211,8 +3700,26 @@
       <c r="AE28" t="s">
         <v>46</v>
       </c>
+      <c r="AF28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3306,8 +3813,26 @@
       <c r="AE29" t="s">
         <v>46</v>
       </c>
+      <c r="AF29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3401,8 +3926,26 @@
       <c r="AE30" t="s">
         <v>46</v>
       </c>
+      <c r="AF30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3496,8 +4039,26 @@
       <c r="AE31" t="s">
         <v>46</v>
       </c>
+      <c r="AF31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3591,8 +4152,26 @@
       <c r="AE32" t="s">
         <v>47</v>
       </c>
+      <c r="AF32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3686,8 +4265,26 @@
       <c r="AE33" t="s">
         <v>46</v>
       </c>
+      <c r="AF33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3781,8 +4378,26 @@
       <c r="AE34" t="s">
         <v>46</v>
       </c>
+      <c r="AF34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3876,8 +4491,26 @@
       <c r="AE35" t="s">
         <v>46</v>
       </c>
+      <c r="AF35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3971,8 +4604,26 @@
       <c r="AE36" t="s">
         <v>46</v>
       </c>
+      <c r="AF36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4066,8 +4717,26 @@
       <c r="AE37" t="s">
         <v>46</v>
       </c>
+      <c r="AF37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4161,8 +4830,26 @@
       <c r="AE38" t="s">
         <v>47</v>
       </c>
+      <c r="AF38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4256,8 +4943,26 @@
       <c r="AE39" t="s">
         <v>47</v>
       </c>
+      <c r="AF39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4351,8 +5056,26 @@
       <c r="AE40" t="s">
         <v>47</v>
       </c>
+      <c r="AF40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4446,8 +5169,26 @@
       <c r="AE41" t="s">
         <v>46</v>
       </c>
+      <c r="AF41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4539,6 +5280,24 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s">
         <v>46</v>
       </c>
     </row>
